--- a/Files/fitness_values/pairwise_fitness.xlsx
+++ b/Files/fitness_values/pairwise_fitness.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdjubairpantho/Desktop/DPGR/Files/fitness_values/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8AEACF-C310-5547-8D54-D7D5F1B0BF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83623479-A467-354F-A816-D877BE4A1E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="17260" xr2:uid="{A35208A4-ED9B-384D-B874-598F35AF4C47}"/>
   </bookViews>
@@ -515,7 +515,7 @@
   <dimension ref="A1:C221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:XFD52"/>
+      <selection activeCell="E154" sqref="E154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
